--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
@@ -1687,7 +1687,7 @@
     <t>['56', '63', '68']</t>
   </si>
   <si>
-    <t>['8', '77', '87']</t>
+    <t>['8', '77', '86']</t>
   </si>
   <si>
     <t>['69', '90+2']</t>
@@ -105840,13 +105840,13 @@
         <v>8</v>
       </c>
       <c r="BA504">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB504">
         <v>3</v>
       </c>
       <c r="BC504">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD504">
         <v>1.32</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="573">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1731,6 +1731,9 @@
   <si>
     <t>['67', '78']</t>
   </si>
+  <si>
+    <t>['75']</t>
+  </si>
 </sst>
 </file>
 
@@ -2091,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP525"/>
+  <dimension ref="A1:BP526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3664,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ8">
         <v>0.55</v>
@@ -5727,7 +5730,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ18">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -9641,7 +9644,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ37">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -10256,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ40">
         <v>1.14</v>
@@ -13346,7 +13349,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ55">
         <v>1.45</v>
@@ -17675,7 +17678,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ76">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR76">
         <v>1.79</v>
@@ -19114,7 +19117,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ83">
         <v>1.55</v>
@@ -21380,7 +21383,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ94">
         <v>1.64</v>
@@ -25503,7 +25506,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ114">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -27151,7 +27154,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ122">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR122">
         <v>1.41</v>
@@ -29826,7 +29829,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ135">
         <v>0.77</v>
@@ -31271,7 +31274,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ142">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR142">
         <v>1.27</v>
@@ -34152,7 +34155,7 @@
         <v>1.8</v>
       </c>
       <c r="AP156">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ156">
         <v>1.36</v>
@@ -36006,7 +36009,7 @@
         <v>0.67</v>
       </c>
       <c r="AP165">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ165">
         <v>1.18</v>
@@ -38481,7 +38484,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ177">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR177">
         <v>0.99</v>
@@ -38684,7 +38687,7 @@
         <v>0.86</v>
       </c>
       <c r="AP178">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ178">
         <v>1.59</v>
@@ -41777,7 +41780,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ193">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR193">
         <v>1.36</v>
@@ -43628,7 +43631,7 @@
         <v>0.78</v>
       </c>
       <c r="AP202">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ202">
         <v>1.05</v>
@@ -45485,7 +45488,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ211">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR211">
         <v>1.76</v>
@@ -48366,7 +48369,7 @@
         <v>1.44</v>
       </c>
       <c r="AP225">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ225">
         <v>1.45</v>
@@ -51665,7 +51668,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ241">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR241">
         <v>0.97</v>
@@ -53722,7 +53725,7 @@
         <v>2.18</v>
       </c>
       <c r="AP251">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ251">
         <v>1.91</v>
@@ -56400,7 +56403,7 @@
         <v>0.64</v>
       </c>
       <c r="AP264">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ264">
         <v>0.55</v>
@@ -56815,7 +56818,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ266">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR266">
         <v>1.61</v>
@@ -59493,7 +59496,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ279">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR279">
         <v>1.16</v>
@@ -63816,7 +63819,7 @@
         <v>1.25</v>
       </c>
       <c r="AP300">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ300">
         <v>1.24</v>
@@ -64849,7 +64852,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ305">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR305">
         <v>1.4</v>
@@ -69587,7 +69590,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ328">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR328">
         <v>1.47</v>
@@ -69996,7 +69999,7 @@
         <v>1.08</v>
       </c>
       <c r="AP330">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ330">
         <v>1.18</v>
@@ -76794,7 +76797,7 @@
         <v>0.57</v>
       </c>
       <c r="AP363">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ363">
         <v>0.95</v>
@@ -78442,7 +78445,7 @@
         <v>0.87</v>
       </c>
       <c r="AP371">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ371">
         <v>1.05</v>
@@ -79269,7 +79272,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ375">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR375">
         <v>1.35</v>
@@ -83180,7 +83183,7 @@
         <v>1.69</v>
       </c>
       <c r="AP394">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ394">
         <v>1.36</v>
@@ -86067,7 +86070,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ408">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR408">
         <v>1.75</v>
@@ -88124,7 +88127,7 @@
         <v>1.24</v>
       </c>
       <c r="AP418">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ418">
         <v>1.18</v>
@@ -91835,7 +91838,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ436">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR436">
         <v>1.23</v>
@@ -99457,7 +99460,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ473">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR473">
         <v>1.25</v>
@@ -100896,7 +100899,7 @@
         <v>0.75</v>
       </c>
       <c r="AP480">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ480">
         <v>0.73</v>
@@ -102547,7 +102550,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ488">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR488">
         <v>1.27</v>
@@ -105634,7 +105637,7 @@
         <v>1.48</v>
       </c>
       <c r="AP503">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AQ503">
         <v>1.55</v>
@@ -109551,7 +109554,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ522">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR522">
         <v>1.2</v>
@@ -110245,6 +110248,212 @@
       </c>
       <c r="BP525">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="526" spans="1:68">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>7727322</v>
+      </c>
+      <c r="C526" t="s">
+        <v>68</v>
+      </c>
+      <c r="D526" t="s">
+        <v>69</v>
+      </c>
+      <c r="E526" s="2">
+        <v>45771.65625</v>
+      </c>
+      <c r="F526">
+        <v>38</v>
+      </c>
+      <c r="G526" t="s">
+        <v>76</v>
+      </c>
+      <c r="H526" t="s">
+        <v>80</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
+      </c>
+      <c r="M526">
+        <v>1</v>
+      </c>
+      <c r="N526">
+        <v>1</v>
+      </c>
+      <c r="O526" t="s">
+        <v>96</v>
+      </c>
+      <c r="P526" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q526">
+        <v>4.75</v>
+      </c>
+      <c r="R526">
+        <v>2.1</v>
+      </c>
+      <c r="S526">
+        <v>2.6</v>
+      </c>
+      <c r="T526">
+        <v>1.44</v>
+      </c>
+      <c r="U526">
+        <v>2.63</v>
+      </c>
+      <c r="V526">
+        <v>3.25</v>
+      </c>
+      <c r="W526">
+        <v>1.33</v>
+      </c>
+      <c r="X526">
+        <v>9</v>
+      </c>
+      <c r="Y526">
+        <v>1.07</v>
+      </c>
+      <c r="Z526">
+        <v>4.2</v>
+      </c>
+      <c r="AA526">
+        <v>3.5</v>
+      </c>
+      <c r="AB526">
+        <v>1.83</v>
+      </c>
+      <c r="AC526">
+        <v>0</v>
+      </c>
+      <c r="AD526">
+        <v>0</v>
+      </c>
+      <c r="AE526">
+        <v>1.5</v>
+      </c>
+      <c r="AF526">
+        <v>2.4</v>
+      </c>
+      <c r="AG526">
+        <v>1.75</v>
+      </c>
+      <c r="AH526">
+        <v>2</v>
+      </c>
+      <c r="AI526">
+        <v>1.95</v>
+      </c>
+      <c r="AJ526">
+        <v>1.8</v>
+      </c>
+      <c r="AK526">
+        <v>1.95</v>
+      </c>
+      <c r="AL526">
+        <v>1.2</v>
+      </c>
+      <c r="AM526">
+        <v>1.17</v>
+      </c>
+      <c r="AN526">
+        <v>1.48</v>
+      </c>
+      <c r="AO526">
+        <v>2.05</v>
+      </c>
+      <c r="AP526">
+        <v>1.41</v>
+      </c>
+      <c r="AQ526">
+        <v>2.1</v>
+      </c>
+      <c r="AR526">
+        <v>1.26</v>
+      </c>
+      <c r="AS526">
+        <v>1.21</v>
+      </c>
+      <c r="AT526">
+        <v>2.47</v>
+      </c>
+      <c r="AU526">
+        <v>4</v>
+      </c>
+      <c r="AV526">
+        <v>3</v>
+      </c>
+      <c r="AW526">
+        <v>6</v>
+      </c>
+      <c r="AX526">
+        <v>7</v>
+      </c>
+      <c r="AY526">
+        <v>10</v>
+      </c>
+      <c r="AZ526">
+        <v>10</v>
+      </c>
+      <c r="BA526">
+        <v>6</v>
+      </c>
+      <c r="BB526">
+        <v>3</v>
+      </c>
+      <c r="BC526">
+        <v>9</v>
+      </c>
+      <c r="BD526">
+        <v>0</v>
+      </c>
+      <c r="BE526">
+        <v>0</v>
+      </c>
+      <c r="BF526">
+        <v>0</v>
+      </c>
+      <c r="BG526">
+        <v>0</v>
+      </c>
+      <c r="BH526">
+        <v>0</v>
+      </c>
+      <c r="BI526">
+        <v>0</v>
+      </c>
+      <c r="BJ526">
+        <v>0</v>
+      </c>
+      <c r="BK526">
+        <v>0</v>
+      </c>
+      <c r="BL526">
+        <v>0</v>
+      </c>
+      <c r="BM526">
+        <v>0</v>
+      </c>
+      <c r="BN526">
+        <v>0</v>
+      </c>
+      <c r="BO526">
+        <v>0</v>
+      </c>
+      <c r="BP526">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="597">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2166,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP555"/>
+  <dimension ref="A1:BP556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ5">
         <v>0.74</v>
@@ -5184,7 +5184,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ15">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ26">
         <v>0.52</v>
@@ -10540,7 +10540,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ41">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR41">
         <v>1.27</v>
@@ -14660,7 +14660,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>1.57</v>
@@ -16717,10 +16717,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ71">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.92</v>
@@ -24342,7 +24342,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ108">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -24751,7 +24751,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ110">
         <v>1.22</v>
@@ -28668,7 +28668,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ129">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -30313,7 +30313,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ137">
         <v>1</v>
@@ -32994,7 +32994,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ150">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -33815,7 +33815,7 @@
         <v>0.8</v>
       </c>
       <c r="AP154">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ154">
         <v>1.26</v>
@@ -34639,7 +34639,7 @@
         <v>1.83</v>
       </c>
       <c r="AP158">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ158">
         <v>1.83</v>
@@ -36905,7 +36905,7 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ169">
         <v>1.35</v>
@@ -38141,7 +38141,7 @@
         <v>1.29</v>
       </c>
       <c r="AP175">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ175">
         <v>1.7</v>
@@ -38762,7 +38762,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ178">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -45354,7 +45354,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ210">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR210">
         <v>1.22</v>
@@ -46381,7 +46381,7 @@
         <v>1.25</v>
       </c>
       <c r="AP215">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ215">
         <v>1.13</v>
@@ -49677,7 +49677,7 @@
         <v>0.88</v>
       </c>
       <c r="AP231">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ231">
         <v>0.87</v>
@@ -50916,7 +50916,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ237">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR237">
         <v>1.71</v>
@@ -57299,7 +57299,7 @@
         <v>2.2</v>
       </c>
       <c r="AP268">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ268">
         <v>2.17</v>
@@ -58744,7 +58744,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ275">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR275">
         <v>1.06</v>
@@ -59565,7 +59565,7 @@
         <v>1.45</v>
       </c>
       <c r="AP279">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ279">
         <v>1.13</v>
@@ -62040,7 +62040,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ291">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR291">
         <v>1.23</v>
@@ -66981,7 +66981,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP315">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ315">
         <v>0.83</v>
@@ -68835,7 +68835,7 @@
         <v>0.46</v>
       </c>
       <c r="AP324">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ324">
         <v>0.65</v>
@@ -69456,7 +69456,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ327">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR327">
         <v>1.33</v>
@@ -72543,7 +72543,7 @@
         <v>1.79</v>
       </c>
       <c r="AP342">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ342">
         <v>1.52</v>
@@ -78520,7 +78520,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ371">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR371">
         <v>1.43</v>
@@ -81198,7 +81198,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ384">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR384">
         <v>1.76</v>
@@ -81816,7 +81816,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ387">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR387">
         <v>1.77</v>
@@ -83461,7 +83461,7 @@
         <v>1.47</v>
       </c>
       <c r="AP395">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ395">
         <v>1.52</v>
@@ -86348,7 +86348,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ409">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR409">
         <v>1.61</v>
@@ -87169,7 +87169,7 @@
         <v>1.31</v>
       </c>
       <c r="AP413">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ413">
         <v>1.46</v>
@@ -92940,7 +92940,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ441">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR441">
         <v>1.57</v>
@@ -94997,7 +94997,7 @@
         <v>1.16</v>
       </c>
       <c r="AP451">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ451">
         <v>1</v>
@@ -97881,7 +97881,7 @@
         <v>1.11</v>
       </c>
       <c r="AP465">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ465">
         <v>1.09</v>
@@ -99120,7 +99120,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ471">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR471">
         <v>1.13</v>
@@ -102828,7 +102828,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ489">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR489">
         <v>1.5</v>
@@ -104476,7 +104476,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ497">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR497">
         <v>1.18</v>
@@ -105091,7 +105091,7 @@
         <v>1</v>
       </c>
       <c r="AP500">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ500">
         <v>0.91</v>
@@ -108593,7 +108593,7 @@
         <v>1.43</v>
       </c>
       <c r="AP517">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ517">
         <v>1.3</v>
@@ -110244,7 +110244,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ525">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR525">
         <v>1.32</v>
@@ -111477,7 +111477,7 @@
         <v>1.14</v>
       </c>
       <c r="AP531">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AQ531">
         <v>1.09</v>
@@ -114982,7 +114982,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ548">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR548">
         <v>1.5</v>
@@ -116215,10 +116215,10 @@
         <v>1.89</v>
       </c>
       <c r="AP554">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AQ554">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AR554">
         <v>1.36</v>
@@ -116500,6 +116500,212 @@
       </c>
       <c r="BP555">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="556" spans="1:68">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>7897216</v>
+      </c>
+      <c r="C556" t="s">
+        <v>68</v>
+      </c>
+      <c r="D556" t="s">
+        <v>69</v>
+      </c>
+      <c r="E556" s="2">
+        <v>45791.66666666666</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556" t="s">
+        <v>73</v>
+      </c>
+      <c r="H556" t="s">
+        <v>75</v>
+      </c>
+      <c r="I556">
+        <v>0</v>
+      </c>
+      <c r="J556">
+        <v>1</v>
+      </c>
+      <c r="K556">
+        <v>1</v>
+      </c>
+      <c r="L556">
+        <v>1</v>
+      </c>
+      <c r="M556">
+        <v>1</v>
+      </c>
+      <c r="N556">
+        <v>2</v>
+      </c>
+      <c r="O556" t="s">
+        <v>160</v>
+      </c>
+      <c r="P556" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q556">
+        <v>2.5</v>
+      </c>
+      <c r="R556">
+        <v>2.2</v>
+      </c>
+      <c r="S556">
+        <v>4.5</v>
+      </c>
+      <c r="T556">
+        <v>1.36</v>
+      </c>
+      <c r="U556">
+        <v>3</v>
+      </c>
+      <c r="V556">
+        <v>2.75</v>
+      </c>
+      <c r="W556">
+        <v>1.4</v>
+      </c>
+      <c r="X556">
+        <v>8</v>
+      </c>
+      <c r="Y556">
+        <v>1.08</v>
+      </c>
+      <c r="Z556">
+        <v>1.76</v>
+      </c>
+      <c r="AA556">
+        <v>3.28</v>
+      </c>
+      <c r="AB556">
+        <v>4</v>
+      </c>
+      <c r="AC556">
+        <v>1.06</v>
+      </c>
+      <c r="AD556">
+        <v>8.5</v>
+      </c>
+      <c r="AE556">
+        <v>1.3</v>
+      </c>
+      <c r="AF556">
+        <v>3.35</v>
+      </c>
+      <c r="AG556">
+        <v>1.95</v>
+      </c>
+      <c r="AH556">
+        <v>1.75</v>
+      </c>
+      <c r="AI556">
+        <v>1.8</v>
+      </c>
+      <c r="AJ556">
+        <v>1.95</v>
+      </c>
+      <c r="AK556">
+        <v>1.22</v>
+      </c>
+      <c r="AL556">
+        <v>1.25</v>
+      </c>
+      <c r="AM556">
+        <v>1.85</v>
+      </c>
+      <c r="AN556">
+        <v>1.87</v>
+      </c>
+      <c r="AO556">
+        <v>1.68</v>
+      </c>
+      <c r="AP556">
+        <v>1.85</v>
+      </c>
+      <c r="AQ556">
+        <v>1.67</v>
+      </c>
+      <c r="AR556">
+        <v>1.51</v>
+      </c>
+      <c r="AS556">
+        <v>1.36</v>
+      </c>
+      <c r="AT556">
+        <v>2.87</v>
+      </c>
+      <c r="AU556">
+        <v>7</v>
+      </c>
+      <c r="AV556">
+        <v>7</v>
+      </c>
+      <c r="AW556">
+        <v>17</v>
+      </c>
+      <c r="AX556">
+        <v>7</v>
+      </c>
+      <c r="AY556">
+        <v>29</v>
+      </c>
+      <c r="AZ556">
+        <v>16</v>
+      </c>
+      <c r="BA556">
+        <v>6</v>
+      </c>
+      <c r="BB556">
+        <v>3</v>
+      </c>
+      <c r="BC556">
+        <v>9</v>
+      </c>
+      <c r="BD556">
+        <v>1.6</v>
+      </c>
+      <c r="BE556">
+        <v>6.5</v>
+      </c>
+      <c r="BF556">
+        <v>2.55</v>
+      </c>
+      <c r="BG556">
+        <v>1.36</v>
+      </c>
+      <c r="BH556">
+        <v>2.8</v>
+      </c>
+      <c r="BI556">
+        <v>1.62</v>
+      </c>
+      <c r="BJ556">
+        <v>2.14</v>
+      </c>
+      <c r="BK556">
+        <v>2.25</v>
+      </c>
+      <c r="BL556">
+        <v>1.57</v>
+      </c>
+      <c r="BM556">
+        <v>3</v>
+      </c>
+      <c r="BN556">
+        <v>1.33</v>
+      </c>
+      <c r="BO556">
+        <v>4.5</v>
+      </c>
+      <c r="BP556">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="597">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1234,10 +1234,10 @@
     <t>['30', '88']</t>
   </si>
   <si>
-    <t>['13', '18']</t>
+    <t>['81']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['13', '18']</t>
   </si>
   <si>
     <t>['36', '45+1']</t>
@@ -2166,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP556"/>
+  <dimension ref="A1:BP557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2425,7 +2425,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2712,7 +2712,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ3">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ15">
         <v>1.63</v>
@@ -9301,7 +9301,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
         <v>1.35</v>
@@ -9922,7 +9922,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ38">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ52">
         <v>0.91</v>
@@ -13218,7 +13218,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ54">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -16305,7 +16305,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
         <v>1.52</v>
@@ -20016,7 +20016,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ87">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -23106,7 +23106,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ102">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -25575,7 +25575,7 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
         <v>2.17</v>
@@ -27635,7 +27635,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -29080,7 +29080,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ131">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.07</v>
@@ -31755,7 +31755,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144">
         <v>1.7</v>
@@ -34642,7 +34642,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ158">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR158">
         <v>1.7</v>
@@ -35878,7 +35878,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ164">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR164">
         <v>1.09</v>
@@ -39380,7 +39380,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ181">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR181">
         <v>1.35</v>
@@ -42879,7 +42879,7 @@
         <v>0.63</v>
       </c>
       <c r="AP198">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ198">
         <v>0.83</v>
@@ -43500,7 +43500,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ201">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR201">
         <v>1.26</v>
@@ -48029,7 +48029,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ223">
         <v>1.13</v>
@@ -48444,7 +48444,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ225">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR225">
         <v>1</v>
@@ -52561,7 +52561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP245">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ245">
         <v>0.74</v>
@@ -53307,7 +53307,7 @@
         <v>252</v>
       </c>
       <c r="P249" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q249">
         <v>2.2</v>
@@ -53800,7 +53800,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR251">
         <v>1.13</v>
@@ -54621,10 +54621,10 @@
         <v>2.25</v>
       </c>
       <c r="AP255">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ255">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR255">
         <v>1.31</v>
@@ -60389,7 +60389,7 @@
         <v>1.08</v>
       </c>
       <c r="AP283">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ283">
         <v>1.26</v>
@@ -63894,7 +63894,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ300">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR300">
         <v>1.37</v>
@@ -65951,7 +65951,7 @@
         <v>0.5</v>
       </c>
       <c r="AP310">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ310">
         <v>0.65</v>
@@ -67521,7 +67521,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q318">
         <v>2.1</v>
@@ -67805,7 +67805,7 @@
         <v>0.71</v>
       </c>
       <c r="AP319">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ319">
         <v>0.52</v>
@@ -70280,7 +70280,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ331">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR331">
         <v>1.43</v>
@@ -72749,7 +72749,7 @@
         <v>1.17</v>
       </c>
       <c r="AP343">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ343">
         <v>1.09</v>
@@ -74191,7 +74191,7 @@
         <v>0.62</v>
       </c>
       <c r="AP350">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ350">
         <v>0.87</v>
@@ -76460,7 +76460,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ361">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR361">
         <v>1.14</v>
@@ -80577,7 +80577,7 @@
         <v>1.13</v>
       </c>
       <c r="AP381">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ381">
         <v>1.13</v>
@@ -82434,7 +82434,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ390">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR390">
         <v>1.86</v>
@@ -85727,7 +85727,7 @@
         <v>1.82</v>
       </c>
       <c r="AP406">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ406">
         <v>1.52</v>
@@ -88202,7 +88202,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ418">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR418">
         <v>1.27</v>
@@ -88327,7 +88327,7 @@
         <v>342</v>
       </c>
       <c r="P419" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q419">
         <v>2.5</v>
@@ -92731,7 +92731,7 @@
         <v>1.24</v>
       </c>
       <c r="AP440">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ440">
         <v>1.22</v>
@@ -93352,7 +93352,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ443">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR443">
         <v>1.68</v>
@@ -95203,7 +95203,7 @@
         <v>1.67</v>
       </c>
       <c r="AP452">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ452">
         <v>1.3</v>
@@ -99944,7 +99944,7 @@
         <v>2</v>
       </c>
       <c r="AQ475">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR475">
         <v>1.37</v>
@@ -101177,7 +101177,7 @@
         <v>1.05</v>
       </c>
       <c r="AP481">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ481">
         <v>1.09</v>
@@ -103034,7 +103034,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ490">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR490">
         <v>1.47</v>
@@ -106945,7 +106945,7 @@
         <v>1.1</v>
       </c>
       <c r="AP509">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ509">
         <v>1</v>
@@ -107360,7 +107360,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ511">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR511">
         <v>1.83</v>
@@ -110862,7 +110862,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ528">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR528">
         <v>1.51</v>
@@ -115185,7 +115185,7 @@
         <v>1.05</v>
       </c>
       <c r="AP549">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ549">
         <v>1</v>
@@ -116421,10 +116421,10 @@
         <v>1.85</v>
       </c>
       <c r="AP555">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AQ555">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR555">
         <v>1.47</v>
@@ -116706,6 +116706,212 @@
       </c>
       <c r="BP556">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="557" spans="1:68">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>7897217</v>
+      </c>
+      <c r="C557" t="s">
+        <v>68</v>
+      </c>
+      <c r="D557" t="s">
+        <v>69</v>
+      </c>
+      <c r="E557" s="2">
+        <v>45792.66666666666</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557" t="s">
+        <v>83</v>
+      </c>
+      <c r="H557" t="s">
+        <v>86</v>
+      </c>
+      <c r="I557">
+        <v>0</v>
+      </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <v>0</v>
+      </c>
+      <c r="L557">
+        <v>1</v>
+      </c>
+      <c r="M557">
+        <v>0</v>
+      </c>
+      <c r="N557">
+        <v>1</v>
+      </c>
+      <c r="O557" t="s">
+        <v>406</v>
+      </c>
+      <c r="P557" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q557">
+        <v>2.88</v>
+      </c>
+      <c r="R557">
+        <v>2.15</v>
+      </c>
+      <c r="S557">
+        <v>4.01</v>
+      </c>
+      <c r="T557">
+        <v>1.42</v>
+      </c>
+      <c r="U557">
+        <v>2.8</v>
+      </c>
+      <c r="V557">
+        <v>3.15</v>
+      </c>
+      <c r="W557">
+        <v>1.35</v>
+      </c>
+      <c r="X557">
+        <v>8.5</v>
+      </c>
+      <c r="Y557">
+        <v>1.01</v>
+      </c>
+      <c r="Z557">
+        <v>2.07</v>
+      </c>
+      <c r="AA557">
+        <v>3.09</v>
+      </c>
+      <c r="AB557">
+        <v>3.19</v>
+      </c>
+      <c r="AC557">
+        <v>1.01</v>
+      </c>
+      <c r="AD557">
+        <v>8.5</v>
+      </c>
+      <c r="AE557">
+        <v>1.34</v>
+      </c>
+      <c r="AF557">
+        <v>2.88</v>
+      </c>
+      <c r="AG557">
+        <v>1.83</v>
+      </c>
+      <c r="AH557">
+        <v>1.87</v>
+      </c>
+      <c r="AI557">
+        <v>1.88</v>
+      </c>
+      <c r="AJ557">
+        <v>1.82</v>
+      </c>
+      <c r="AK557">
+        <v>1.34</v>
+      </c>
+      <c r="AL557">
+        <v>1.33</v>
+      </c>
+      <c r="AM557">
+        <v>1.65</v>
+      </c>
+      <c r="AN557">
+        <v>1.83</v>
+      </c>
+      <c r="AO557">
+        <v>1.81</v>
+      </c>
+      <c r="AP557">
+        <v>1.85</v>
+      </c>
+      <c r="AQ557">
+        <v>1.77</v>
+      </c>
+      <c r="AR557">
+        <v>1.45</v>
+      </c>
+      <c r="AS557">
+        <v>1.46</v>
+      </c>
+      <c r="AT557">
+        <v>2.91</v>
+      </c>
+      <c r="AU557">
+        <v>4</v>
+      </c>
+      <c r="AV557">
+        <v>0</v>
+      </c>
+      <c r="AW557">
+        <v>9</v>
+      </c>
+      <c r="AX557">
+        <v>8</v>
+      </c>
+      <c r="AY557">
+        <v>16</v>
+      </c>
+      <c r="AZ557">
+        <v>13</v>
+      </c>
+      <c r="BA557">
+        <v>4</v>
+      </c>
+      <c r="BB557">
+        <v>4</v>
+      </c>
+      <c r="BC557">
+        <v>8</v>
+      </c>
+      <c r="BD557">
+        <v>1.7</v>
+      </c>
+      <c r="BE557">
+        <v>6.4</v>
+      </c>
+      <c r="BF557">
+        <v>2.4</v>
+      </c>
+      <c r="BG557">
+        <v>1.38</v>
+      </c>
+      <c r="BH557">
+        <v>2.75</v>
+      </c>
+      <c r="BI557">
+        <v>1.65</v>
+      </c>
+      <c r="BJ557">
+        <v>2.08</v>
+      </c>
+      <c r="BK557">
+        <v>2.05</v>
+      </c>
+      <c r="BL557">
+        <v>1.67</v>
+      </c>
+      <c r="BM557">
+        <v>2.65</v>
+      </c>
+      <c r="BN557">
+        <v>1.41</v>
+      </c>
+      <c r="BO557">
+        <v>3.4</v>
+      </c>
+      <c r="BP557">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="597">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1234,10 +1234,10 @@
     <t>['30', '88']</t>
   </si>
   <si>
-    <t>['13', '18']</t>
+    <t>['81']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['13', '18']</t>
   </si>
   <si>
     <t>['36', '45+1']</t>
@@ -2166,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP556"/>
+  <dimension ref="A1:BP557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2425,7 +2425,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2712,7 +2712,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ3">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ15">
         <v>1.63</v>
@@ -9301,7 +9301,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ35">
         <v>1.35</v>
@@ -9922,7 +9922,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ38">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ52">
         <v>0.91</v>
@@ -13218,7 +13218,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ54">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -16305,7 +16305,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ69">
         <v>1.52</v>
@@ -20016,7 +20016,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ87">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -23106,7 +23106,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ102">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -25575,7 +25575,7 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ114">
         <v>2.17</v>
@@ -27635,7 +27635,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -29080,7 +29080,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ131">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>1.07</v>
@@ -31755,7 +31755,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144">
         <v>1.7</v>
@@ -34642,7 +34642,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ158">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR158">
         <v>1.7</v>
@@ -35878,7 +35878,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ164">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR164">
         <v>1.09</v>
@@ -39380,7 +39380,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ181">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR181">
         <v>1.35</v>
@@ -42879,7 +42879,7 @@
         <v>0.63</v>
       </c>
       <c r="AP198">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ198">
         <v>0.83</v>
@@ -43500,7 +43500,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ201">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR201">
         <v>1.26</v>
@@ -48029,7 +48029,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ223">
         <v>1.13</v>
@@ -48444,7 +48444,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ225">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR225">
         <v>1</v>
@@ -52561,7 +52561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP245">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ245">
         <v>0.74</v>
@@ -53307,7 +53307,7 @@
         <v>252</v>
       </c>
       <c r="P249" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q249">
         <v>2.2</v>
@@ -53800,7 +53800,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR251">
         <v>1.13</v>
@@ -54621,10 +54621,10 @@
         <v>2.25</v>
       </c>
       <c r="AP255">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ255">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR255">
         <v>1.31</v>
@@ -60389,7 +60389,7 @@
         <v>1.08</v>
       </c>
       <c r="AP283">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ283">
         <v>1.26</v>
@@ -63894,7 +63894,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ300">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR300">
         <v>1.37</v>
@@ -65951,7 +65951,7 @@
         <v>0.5</v>
       </c>
       <c r="AP310">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ310">
         <v>0.65</v>
@@ -67521,7 +67521,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q318">
         <v>2.1</v>
@@ -67805,7 +67805,7 @@
         <v>0.71</v>
       </c>
       <c r="AP319">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ319">
         <v>0.52</v>
@@ -70280,7 +70280,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ331">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR331">
         <v>1.43</v>
@@ -72749,7 +72749,7 @@
         <v>1.17</v>
       </c>
       <c r="AP343">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ343">
         <v>1.09</v>
@@ -74603,7 +74603,7 @@
         <v>0.62</v>
       </c>
       <c r="AP352">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ352">
         <v>0.87</v>
@@ -76048,7 +76048,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ359">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR359">
         <v>1.14</v>
@@ -80577,7 +80577,7 @@
         <v>1.13</v>
       </c>
       <c r="AP381">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ381">
         <v>1.13</v>
@@ -82434,7 +82434,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ390">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR390">
         <v>1.86</v>
@@ -85727,7 +85727,7 @@
         <v>1.82</v>
       </c>
       <c r="AP406">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ406">
         <v>1.52</v>
@@ -88202,7 +88202,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ418">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR418">
         <v>1.27</v>
@@ -88327,7 +88327,7 @@
         <v>342</v>
       </c>
       <c r="P419" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q419">
         <v>2.5</v>
@@ -92731,7 +92731,7 @@
         <v>1.24</v>
       </c>
       <c r="AP440">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ440">
         <v>1.22</v>
@@ -93352,7 +93352,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ443">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR443">
         <v>1.68</v>
@@ -94997,7 +94997,7 @@
         <v>1.67</v>
       </c>
       <c r="AP451">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ451">
         <v>1.3</v>
@@ -99944,7 +99944,7 @@
         <v>2</v>
       </c>
       <c r="AQ475">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR475">
         <v>1.37</v>
@@ -101383,7 +101383,7 @@
         <v>1.05</v>
       </c>
       <c r="AP482">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ482">
         <v>1.09</v>
@@ -103034,7 +103034,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ490">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR490">
         <v>1.47</v>
@@ -107151,7 +107151,7 @@
         <v>1.1</v>
       </c>
       <c r="AP510">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ510">
         <v>1</v>
@@ -107360,7 +107360,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ511">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR511">
         <v>1.83</v>
@@ -110656,7 +110656,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ527">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AR527">
         <v>1.51</v>
@@ -115185,7 +115185,7 @@
         <v>1.05</v>
       </c>
       <c r="AP549">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AQ549">
         <v>1</v>
@@ -116421,10 +116421,10 @@
         <v>1.85</v>
       </c>
       <c r="AP555">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AQ555">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR555">
         <v>1.47</v>
@@ -116706,6 +116706,212 @@
       </c>
       <c r="BP556">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="557" spans="1:68">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>7897217</v>
+      </c>
+      <c r="C557" t="s">
+        <v>68</v>
+      </c>
+      <c r="D557" t="s">
+        <v>69</v>
+      </c>
+      <c r="E557" s="2">
+        <v>45792.66666666666</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557" t="s">
+        <v>83</v>
+      </c>
+      <c r="H557" t="s">
+        <v>86</v>
+      </c>
+      <c r="I557">
+        <v>0</v>
+      </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <v>0</v>
+      </c>
+      <c r="L557">
+        <v>1</v>
+      </c>
+      <c r="M557">
+        <v>0</v>
+      </c>
+      <c r="N557">
+        <v>1</v>
+      </c>
+      <c r="O557" t="s">
+        <v>406</v>
+      </c>
+      <c r="P557" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q557">
+        <v>2.88</v>
+      </c>
+      <c r="R557">
+        <v>2.15</v>
+      </c>
+      <c r="S557">
+        <v>4.01</v>
+      </c>
+      <c r="T557">
+        <v>1.42</v>
+      </c>
+      <c r="U557">
+        <v>2.8</v>
+      </c>
+      <c r="V557">
+        <v>3.15</v>
+      </c>
+      <c r="W557">
+        <v>1.35</v>
+      </c>
+      <c r="X557">
+        <v>8.5</v>
+      </c>
+      <c r="Y557">
+        <v>1.01</v>
+      </c>
+      <c r="Z557">
+        <v>2.17</v>
+      </c>
+      <c r="AA557">
+        <v>3.2</v>
+      </c>
+      <c r="AB557">
+        <v>3.25</v>
+      </c>
+      <c r="AC557">
+        <v>1.01</v>
+      </c>
+      <c r="AD557">
+        <v>8.5</v>
+      </c>
+      <c r="AE557">
+        <v>1.34</v>
+      </c>
+      <c r="AF557">
+        <v>2.88</v>
+      </c>
+      <c r="AG557">
+        <v>2.1</v>
+      </c>
+      <c r="AH557">
+        <v>1.67</v>
+      </c>
+      <c r="AI557">
+        <v>1.88</v>
+      </c>
+      <c r="AJ557">
+        <v>1.82</v>
+      </c>
+      <c r="AK557">
+        <v>1.34</v>
+      </c>
+      <c r="AL557">
+        <v>1.33</v>
+      </c>
+      <c r="AM557">
+        <v>1.65</v>
+      </c>
+      <c r="AN557">
+        <v>1.83</v>
+      </c>
+      <c r="AO557">
+        <v>1.81</v>
+      </c>
+      <c r="AP557">
+        <v>1.85</v>
+      </c>
+      <c r="AQ557">
+        <v>1.77</v>
+      </c>
+      <c r="AR557">
+        <v>1.45</v>
+      </c>
+      <c r="AS557">
+        <v>1.46</v>
+      </c>
+      <c r="AT557">
+        <v>2.91</v>
+      </c>
+      <c r="AU557">
+        <v>4</v>
+      </c>
+      <c r="AV557">
+        <v>0</v>
+      </c>
+      <c r="AW557">
+        <v>9</v>
+      </c>
+      <c r="AX557">
+        <v>8</v>
+      </c>
+      <c r="AY557">
+        <v>16</v>
+      </c>
+      <c r="AZ557">
+        <v>13</v>
+      </c>
+      <c r="BA557">
+        <v>4</v>
+      </c>
+      <c r="BB557">
+        <v>4</v>
+      </c>
+      <c r="BC557">
+        <v>8</v>
+      </c>
+      <c r="BD557">
+        <v>1.7</v>
+      </c>
+      <c r="BE557">
+        <v>6.4</v>
+      </c>
+      <c r="BF557">
+        <v>2.4</v>
+      </c>
+      <c r="BG557">
+        <v>1.38</v>
+      </c>
+      <c r="BH557">
+        <v>2.75</v>
+      </c>
+      <c r="BI557">
+        <v>1.65</v>
+      </c>
+      <c r="BJ557">
+        <v>2.08</v>
+      </c>
+      <c r="BK557">
+        <v>2.05</v>
+      </c>
+      <c r="BL557">
+        <v>1.67</v>
+      </c>
+      <c r="BM557">
+        <v>2.65</v>
+      </c>
+      <c r="BN557">
+        <v>1.41</v>
+      </c>
+      <c r="BO557">
+        <v>3.4</v>
+      </c>
+      <c r="BP557">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="597">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2166,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP557"/>
+  <dimension ref="A1:BP558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5181,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ35">
         <v>1.35</v>
@@ -10540,7 +10540,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ41">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR41">
         <v>1.27</v>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ52">
         <v>0.91</v>
@@ -14660,7 +14660,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
         <v>1.57</v>
@@ -16305,7 +16305,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ69">
         <v>1.52</v>
@@ -16720,7 +16720,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.92</v>
@@ -24342,7 +24342,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ108">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -25575,7 +25575,7 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ114">
         <v>2.17</v>
@@ -27635,7 +27635,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -28668,7 +28668,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ129">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR129">
         <v>1.4</v>
@@ -31755,7 +31755,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ144">
         <v>1.7</v>
@@ -32994,7 +32994,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ150">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -38762,7 +38762,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ178">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -42879,7 +42879,7 @@
         <v>0.63</v>
       </c>
       <c r="AP198">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ198">
         <v>0.83</v>
@@ -45354,7 +45354,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ210">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR210">
         <v>1.22</v>
@@ -48029,7 +48029,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ223">
         <v>1.13</v>
@@ -50916,7 +50916,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ237">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR237">
         <v>1.71</v>
@@ -52561,7 +52561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP245">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ245">
         <v>0.74</v>
@@ -54621,7 +54621,7 @@
         <v>2.25</v>
       </c>
       <c r="AP255">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ255">
         <v>1.75</v>
@@ -57920,7 +57920,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ271">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR271">
         <v>1.06</v>
@@ -60389,7 +60389,7 @@
         <v>1.08</v>
       </c>
       <c r="AP283">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ283">
         <v>1.26</v>
@@ -62040,7 +62040,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ291">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR291">
         <v>1.23</v>
@@ -65951,7 +65951,7 @@
         <v>0.5</v>
       </c>
       <c r="AP310">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ310">
         <v>0.65</v>
@@ -67805,7 +67805,7 @@
         <v>0.71</v>
       </c>
       <c r="AP319">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ319">
         <v>0.52</v>
@@ -69456,7 +69456,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ327">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR327">
         <v>1.33</v>
@@ -72749,7 +72749,7 @@
         <v>1.17</v>
       </c>
       <c r="AP343">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ343">
         <v>1.09</v>
@@ -74603,7 +74603,7 @@
         <v>0.62</v>
       </c>
       <c r="AP352">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ352">
         <v>0.87</v>
@@ -78520,7 +78520,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ371">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR371">
         <v>1.43</v>
@@ -80577,7 +80577,7 @@
         <v>1.13</v>
       </c>
       <c r="AP381">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ381">
         <v>1.13</v>
@@ -81198,7 +81198,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ384">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR384">
         <v>1.76</v>
@@ -81816,7 +81816,7 @@
         <v>2.65</v>
       </c>
       <c r="AQ387">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR387">
         <v>1.77</v>
@@ -85524,7 +85524,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ405">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR405">
         <v>1.61</v>
@@ -85727,7 +85727,7 @@
         <v>1.82</v>
       </c>
       <c r="AP406">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ406">
         <v>1.52</v>
@@ -92731,7 +92731,7 @@
         <v>1.24</v>
       </c>
       <c r="AP440">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ440">
         <v>1.22</v>
@@ -92940,7 +92940,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ441">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR441">
         <v>1.57</v>
@@ -94997,7 +94997,7 @@
         <v>1.67</v>
       </c>
       <c r="AP451">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ451">
         <v>1.3</v>
@@ -98708,7 +98708,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ469">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR469">
         <v>1.13</v>
@@ -101383,7 +101383,7 @@
         <v>1.05</v>
       </c>
       <c r="AP482">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ482">
         <v>1.09</v>
@@ -102828,7 +102828,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ489">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR489">
         <v>1.5</v>
@@ -104888,7 +104888,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ499">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR499">
         <v>1.18</v>
@@ -107151,7 +107151,7 @@
         <v>1.1</v>
       </c>
       <c r="AP510">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ510">
         <v>1</v>
@@ -110244,7 +110244,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ525">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR525">
         <v>1.32</v>
@@ -114982,7 +114982,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ548">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR548">
         <v>1.5</v>
@@ -115185,7 +115185,7 @@
         <v>1.05</v>
       </c>
       <c r="AP549">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ549">
         <v>1</v>
@@ -116215,7 +116215,7 @@
         <v>1.89</v>
       </c>
       <c r="AP554">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ554">
         <v>1.85</v>
@@ -116424,7 +116424,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ555">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AR555">
         <v>1.47</v>
@@ -116630,7 +116630,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ556">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AR556">
         <v>1.51</v>
@@ -116833,7 +116833,7 @@
         <v>1.81</v>
       </c>
       <c r="AP557">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ557">
         <v>1.77</v>
@@ -116912,6 +116912,212 @@
       </c>
       <c r="BP557">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="558" spans="1:68">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>7899620</v>
+      </c>
+      <c r="C558" t="s">
+        <v>68</v>
+      </c>
+      <c r="D558" t="s">
+        <v>69</v>
+      </c>
+      <c r="E558" s="2">
+        <v>45802.37569444445</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558" t="s">
+        <v>83</v>
+      </c>
+      <c r="H558" t="s">
+        <v>75</v>
+      </c>
+      <c r="I558">
+        <v>1</v>
+      </c>
+      <c r="J558">
+        <v>0</v>
+      </c>
+      <c r="K558">
+        <v>1</v>
+      </c>
+      <c r="L558">
+        <v>1</v>
+      </c>
+      <c r="M558">
+        <v>0</v>
+      </c>
+      <c r="N558">
+        <v>1</v>
+      </c>
+      <c r="O558" t="s">
+        <v>230</v>
+      </c>
+      <c r="P558" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q558">
+        <v>2.88</v>
+      </c>
+      <c r="R558">
+        <v>2.05</v>
+      </c>
+      <c r="S558">
+        <v>4</v>
+      </c>
+      <c r="T558">
+        <v>1.44</v>
+      </c>
+      <c r="U558">
+        <v>2.63</v>
+      </c>
+      <c r="V558">
+        <v>3.25</v>
+      </c>
+      <c r="W558">
+        <v>1.33</v>
+      </c>
+      <c r="X558">
+        <v>9</v>
+      </c>
+      <c r="Y558">
+        <v>1.07</v>
+      </c>
+      <c r="Z558">
+        <v>2.07</v>
+      </c>
+      <c r="AA558">
+        <v>2.97</v>
+      </c>
+      <c r="AB558">
+        <v>3.35</v>
+      </c>
+      <c r="AC558">
+        <v>1.08</v>
+      </c>
+      <c r="AD558">
+        <v>7.5</v>
+      </c>
+      <c r="AE558">
+        <v>1.4</v>
+      </c>
+      <c r="AF558">
+        <v>2.9</v>
+      </c>
+      <c r="AG558">
+        <v>2.1</v>
+      </c>
+      <c r="AH558">
+        <v>1.67</v>
+      </c>
+      <c r="AI558">
+        <v>1.95</v>
+      </c>
+      <c r="AJ558">
+        <v>1.8</v>
+      </c>
+      <c r="AK558">
+        <v>1.3</v>
+      </c>
+      <c r="AL558">
+        <v>1.28</v>
+      </c>
+      <c r="AM558">
+        <v>1.67</v>
+      </c>
+      <c r="AN558">
+        <v>1.85</v>
+      </c>
+      <c r="AO558">
+        <v>1.67</v>
+      </c>
+      <c r="AP558">
+        <v>1.88</v>
+      </c>
+      <c r="AQ558">
+        <v>1.63</v>
+      </c>
+      <c r="AR558">
+        <v>1.45</v>
+      </c>
+      <c r="AS558">
+        <v>1.36</v>
+      </c>
+      <c r="AT558">
+        <v>2.81</v>
+      </c>
+      <c r="AU558">
+        <v>4</v>
+      </c>
+      <c r="AV558">
+        <v>2</v>
+      </c>
+      <c r="AW558">
+        <v>2</v>
+      </c>
+      <c r="AX558">
+        <v>15</v>
+      </c>
+      <c r="AY558">
+        <v>6</v>
+      </c>
+      <c r="AZ558">
+        <v>17</v>
+      </c>
+      <c r="BA558">
+        <v>2</v>
+      </c>
+      <c r="BB558">
+        <v>6</v>
+      </c>
+      <c r="BC558">
+        <v>8</v>
+      </c>
+      <c r="BD558">
+        <v>1.8</v>
+      </c>
+      <c r="BE558">
+        <v>6.5</v>
+      </c>
+      <c r="BF558">
+        <v>2.18</v>
+      </c>
+      <c r="BG558">
+        <v>1.25</v>
+      </c>
+      <c r="BH558">
+        <v>3.28</v>
+      </c>
+      <c r="BI558">
+        <v>1.49</v>
+      </c>
+      <c r="BJ558">
+        <v>2.38</v>
+      </c>
+      <c r="BK558">
+        <v>1.87</v>
+      </c>
+      <c r="BL558">
+        <v>1.83</v>
+      </c>
+      <c r="BM558">
+        <v>2.42</v>
+      </c>
+      <c r="BN558">
+        <v>1.47</v>
+      </c>
+      <c r="BO558">
+        <v>3.2</v>
+      </c>
+      <c r="BP558">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
